--- a/修仙/修仙.xlsx
+++ b/修仙/修仙.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D4D32B-6665-4F79-9D3B-63B0DCD8BAFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,10 +79,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -127,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -162,7 +185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -339,22 +362,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A39C27-072A-45E8-A180-F96BC97143CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.25" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
@@ -362,4 +387,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="52.125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>